--- a/pedidos_cevicheria.xlsx
+++ b/pedidos_cevicheria.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
     </row>
@@ -644,6 +644,402 @@
         </is>
       </c>
       <c r="J5" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2026-02-03 01:31:12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>carlos</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Duo Marino</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2026-02-03 01:31:43</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>carlos</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Causa de Pescado</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yape</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2026-02-03 01:32:16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>yaha</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Trio Marino</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" t="n">
+        <v>60</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Plin</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2026-02-03 01:32:17</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>yaha</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Chicharon de Pescado</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>45</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Plin</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-02-03 01:32:20</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>yaha</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sudado de Pescado</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G10" t="n">
+        <v>54</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Plin</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-02-03 01:32:34</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>frank</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>caldo de mote</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-02-03 01:32:36</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>frank</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sudado de Pescado</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>18</v>
+      </c>
+      <c r="G12" t="n">
+        <v>36</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Yape</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-02-03 01:32:41</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>frank</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Duo Marino</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Yape</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-02-03 02:26:15</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>pepe</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Duo Marino</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Yape</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>Si</t>
         </is>

--- a/pedidos_cevicheria.xlsx
+++ b/pedidos_cevicheria.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,6 +1045,138 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-02-03 03:31:33</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>juan</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Duo Marino</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Yape</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-02-03 03:31:35</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>juan</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Causa de Pescado</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
+        <v>20</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Yape</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-02-03 03:31:38</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>juan</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>sudado</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Yape</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pedidos_cevicheria.xlsx
+++ b/pedidos_cevicheria.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,11 +475,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-02 02:05:23</t>
+          <t>2026-02-04 02:02:11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -489,41 +489,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ceviche</t>
+          <t>Duo Marino</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Efectivo</t>
+          <t>Plin</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-02 02:05:28</t>
+          <t>2026-02-04 02:02:11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,32 +547,32 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Yape</t>
+          <t>Plin</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-02-02 02:06:00</t>
+          <t>2026-02-03 22:15:44</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gladys</t>
+          <t>garu</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -591,76 +591,76 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Plin</t>
+          <t>Efectivo</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-02-02 02:06:23</t>
+          <t>2026-02-03 21:42:14</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gladys</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Causa acevichada</t>
+          <t>Duo Marino</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Plin</t>
+          <t>Yape</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-02-03 01:31:12</t>
+          <t>2026-02-03 21:42:09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>carlos</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -669,57 +669,57 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Efectivo</t>
+          <t>Yape</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-02-03 01:31:43</t>
+          <t>2026-02-03 03:31:38</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>carlos</t>
+          <t>juan</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Causa de Pescado</t>
+          <t>sudado</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -728,134 +728,134 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-02-03 01:32:16</t>
+          <t>2026-02-03 03:31:35</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>yaha</t>
+          <t>juan</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Trio Marino</t>
+          <t>Causa de Pescado</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
         <v>20</v>
       </c>
-      <c r="G8" t="n">
-        <v>60</v>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Plin</t>
+          <t>Yape</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-02-03 01:32:17</t>
+          <t>2026-02-03 03:31:33</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>yaha</t>
+          <t>juan</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Chicharon de Pescado</t>
+          <t>Duo Marino</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Plin</t>
+          <t>Yape</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-02-03 01:32:20</t>
+          <t>2026-02-03 02:26:15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>yaha</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sudado de Pescado</t>
+          <t>Duo Marino</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G10" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Plin</t>
+          <t>Yape</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -871,11 +871,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-02-03 01:32:34</t>
+          <t>2026-02-03 01:32:41</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>caldo de mote</t>
+          <t>Duo Marino</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -899,7 +899,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Efectivo</t>
+          <t>Yape</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -959,11 +959,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-02-03 01:32:41</t>
+          <t>2026-02-03 01:32:34</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Duo Marino</t>
+          <t>caldo de mote</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Yape</t>
+          <t>Efectivo</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1003,35 +1003,35 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-02-03 02:26:15</t>
+          <t>2026-02-03 01:32:20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>yaha</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Duo Marino</t>
+          <t>Sudado de Pescado</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Yape</t>
+          <t>Plin</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1047,133 +1047,441 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-02-03 03:31:33</t>
+          <t>2026-02-03 01:32:17</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>juan</t>
+          <t>yaha</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Duo Marino</t>
+          <t>Chicharon de Pescado</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Yape</t>
+          <t>Plin</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-02-03 03:31:35</t>
+          <t>2026-02-03 01:32:16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>juan</t>
+          <t>yaha</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Causa de Pescado</t>
+          <t>Trio Marino</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Yape</t>
+          <t>Plin</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-02-03 03:31:38</t>
+          <t>2026-02-03 01:31:43</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>carlos</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Causa de Pescado</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Yape</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-02-03 01:31:12</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>carlos</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Duo Marino</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15</v>
+      </c>
+      <c r="G18" t="n">
+        <v>30</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-02-02 02:06:23</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>gladys</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Causa acevichada</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18</v>
+      </c>
+      <c r="G19" t="n">
+        <v>90</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Plin</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-02-01 02:06:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>gladys</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Duo Marino</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15</v>
+      </c>
+      <c r="G20" t="n">
+        <v>15</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Plin</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-31 02:05:28</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>juan</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>sudado</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G17" t="n">
-        <v>30</v>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Causa de Pescado</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Yape</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>No</t>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-30 02:05:23</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>juan</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Ceviche</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>12</v>
+      </c>
+      <c r="G22" t="n">
+        <v>12</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-29 22:15:44</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>garu</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Causa de Langostinos</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>15</v>
+      </c>
+      <c r="G23" t="n">
+        <v>15</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Yape</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-01-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>garu</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Causa de Pescado</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Yape</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>

--- a/pedidos_cevicheria.xlsx
+++ b/pedidos_cevicheria.xlsx
@@ -772,12 +772,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
     </row>
@@ -816,12 +816,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
     </row>
